--- a/WPI components.xlsx
+++ b/WPI components.xlsx
@@ -16,6 +16,98 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Sufficiency of water</t>
+  </si>
+  <si>
+    <t>Frequency of water supply</t>
+  </si>
+  <si>
+    <t>Whether the hh gets sufficiemnt water throughout the year (Reliability)</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Cost of water</t>
+  </si>
+  <si>
+    <t>Distance to water source</t>
+  </si>
+  <si>
+    <t>Principal source of water</t>
+  </si>
+  <si>
+    <t>Access to safe drinking water</t>
+  </si>
+  <si>
+    <t>Waiting time</t>
+  </si>
+  <si>
+    <t>Access to improved sanitation</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Use of latrine</t>
+  </si>
+  <si>
+    <t>Domestic water consumption</t>
+  </si>
+  <si>
+    <t>Method of treatment of drinking water</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Income of the household</t>
+  </si>
+  <si>
+    <t>Under 5 mortality rate</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Presence of stagnant water around the source of drinking water</t>
+  </si>
+  <si>
+    <t>System of disposal of water</t>
+  </si>
+  <si>
+    <t>Availability of water in latrine</t>
+  </si>
+  <si>
+    <t>Insufficiency water from Jan to Dec (Seasonal variability) (12 variables)</t>
+  </si>
+  <si>
+    <t>Check the NSSO data and fill the table given below.</t>
+  </si>
+  <si>
+    <t>Please ensure that the variable names are spelt correctly. Note the upper and lower cases too.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +137,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +485,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>